--- a/document/金橙爱花.xlsx
+++ b/document/金橙爱花.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="309">
   <si>
     <t>汇总</t>
   </si>
@@ -259,9 +259,6 @@
   </si>
   <si>
     <t>APP端查询“个人认证信息”，返回结果见接口SaveUserInfo</t>
-  </si>
-  <si>
-    <t>SaveOrUpdateUserInfo</t>
   </si>
   <si>
     <r>
@@ -299,9 +296,6 @@
     <t>更新和保存个人信息</t>
   </si>
   <si>
-    <t>SaveOrUpdateBankInfo</t>
-  </si>
-  <si>
     <t>{
 phone:""//电话
 bankAccount：""//银行卡号
@@ -313,9 +307,6 @@
     <t>更新和保存银行信息</t>
   </si>
   <si>
-    <t>SaveOrUpdateCompanyInfo</t>
-  </si>
-  <si>
     <t>{
 phone:""//电话号码
 companyName;""//单位名称
@@ -327,9 +318,6 @@
     <t>更新和保存单位信息</t>
   </si>
   <si>
-    <t>GetUserContacts</t>
-  </si>
-  <si>
     <t xml:space="preserve">{
 phone:"",//当前手机号码
 }
@@ -340,9 +328,6 @@
   </si>
   <si>
     <t>APP端查询紧急联系人，通过身份证查不到，则表示需要设置，默认是两个紧急联系人</t>
-  </si>
-  <si>
-    <t>SaveUserContacts</t>
   </si>
   <si>
     <t>{
@@ -484,18 +469,12 @@
     <t xml:space="preserve">表2 </t>
   </si>
   <si>
-    <t>tbL_bank_info</t>
-  </si>
-  <si>
     <t>银行信息</t>
   </si>
   <si>
     <t>phome</t>
   </si>
   <si>
-    <t>bankAccount</t>
-  </si>
-  <si>
     <t>银行卡号</t>
   </si>
   <si>
@@ -514,52 +493,31 @@
     <t>表3</t>
   </si>
   <si>
-    <t>tbl_company_info</t>
-  </si>
-  <si>
     <t>单位信息</t>
   </si>
   <si>
     <t>手机号码</t>
   </si>
   <si>
-    <t>companyName</t>
-  </si>
-  <si>
     <t>单位名称</t>
   </si>
   <si>
-    <t>companyAddress</t>
-  </si>
-  <si>
     <t>单位地址</t>
   </si>
   <si>
-    <t>companyLeaderPhone</t>
-  </si>
-  <si>
     <t>单位领导电话</t>
   </si>
   <si>
     <t>表5</t>
   </si>
   <si>
-    <t>TBL_USER_CONTACTS</t>
-  </si>
-  <si>
     <t>联系人信息</t>
   </si>
   <si>
     <t>本人手机号码</t>
   </si>
   <si>
-    <t>contactName1</t>
-  </si>
-  <si>
     <t>联系人1姓名</t>
-  </si>
-  <si>
-    <t>contactPhone1</t>
   </si>
   <si>
     <t>联系人1电话</t>
@@ -1075,7 +1033,67 @@
     <t>后台</t>
   </si>
   <si>
-    <t>TBL_USER_INFO_BASE</t>
+    <t>tbL_bank_info_base</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyAddress</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyLeaderPhone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>56z</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaveOrUpdateUserInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaveOrUpdateBankInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaveOrUpdateCompanyInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankAccount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_user_info_base</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>contactPhone1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>contactName1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaveUserContacts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetUserContacts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_user_contacts_base</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_company_info_base</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2618,10 +2636,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2805,136 +2823,141 @@
     </row>
     <row r="14" spans="1:4" ht="149.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>64</v>
+        <v>299</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>67</v>
+        <v>300</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>306</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>74</v>
+        <v>305</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="2" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2947,8 +2970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2960,698 +2983,698 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>293</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>308</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>294</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>295</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>296</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>307</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>304</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>303</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B38" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C47" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B60" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B62" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B64" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B69" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C69" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B70" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B71" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C71" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B72" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B74" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C74" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B76" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B79" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C79" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B80" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B81" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B82" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B83" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B84" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B88" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C88" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B89" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B92" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B94" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C94" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B96" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B97" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B98" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3664,695 +3687,695 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C21:H157"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F24" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F26" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F31" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F32" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F33" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F36" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F38" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G39" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H40" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H41" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F43" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G44" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G45" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G46" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G47" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G48" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.2">
       <c r="G49" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.2">
       <c r="G50" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F51" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.2">
       <c r="G52" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="6:7" x14ac:dyDescent="0.2">
       <c r="G53" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="6:7" x14ac:dyDescent="0.2">
       <c r="G54" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F55" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="6:7" x14ac:dyDescent="0.2">
       <c r="G56" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="6:7" x14ac:dyDescent="0.2">
       <c r="G57" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="6:7" x14ac:dyDescent="0.2">
       <c r="G58" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F59" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="6:7" x14ac:dyDescent="0.2">
       <c r="G60" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="6:7" x14ac:dyDescent="0.2">
       <c r="G61" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="6:7" x14ac:dyDescent="0.2">
       <c r="G62" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="6:7" x14ac:dyDescent="0.2">
       <c r="G63" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F64" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G65" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G66" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G67" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G68" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="69" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E69" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F70" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G71" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G72" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F73" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G74" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G75" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F76" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G77" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E79" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F80" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F81" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F82" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E83" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F84" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F85" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E86" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F87" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F88" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F89" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E90" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E91" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F92" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G93" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F94" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G95" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H96" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H97" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="98" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E98" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="99" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F99" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G100" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G101" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G102" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G103" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="104" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G104" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="105" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G105" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G106" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F107" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="108" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G108" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G109" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G110" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="5:8" x14ac:dyDescent="0.2">
       <c r="F111" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="112" spans="5:8" x14ac:dyDescent="0.2">
       <c r="G112" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G113" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G114" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F115" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="116" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G116" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="117" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G117" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="118" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G118" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="119" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G119" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F120" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G121" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="122" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G122" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="123" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G123" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="124" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G124" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="125" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E125" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="126" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F126" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G127" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G128" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="129" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F129" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="130" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G130" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G131" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="132" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F132" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G133" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="134" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="135" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E135" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="136" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E136" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="137" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E137" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="138" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F138" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G139" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="140" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G140" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F141" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="142" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E142" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F143" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="144" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F144" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="145" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F145" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="146" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F146" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F147" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="148" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G148" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="149" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G149" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="150" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G150" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="151" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G151" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="152" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G152" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="153" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F153" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="154" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F154" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="155" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E155" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="156" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F156" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="157" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
